--- a/medicine/Psychotrope/Rtvéli/Rtvéli.xlsx
+++ b/medicine/Psychotrope/Rtvéli/Rtvéli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rtv%C3%A9li</t>
+          <t>Rtvéli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rtvéli (en géorgien : რთველი) est la fête traditionnelle des vendanges et des récoltes de raisin en Géorgie toujours accompagnée de supra (en), d'événements musicaux et d'autres célébrations. Il a habituellement lieu fin septembre dans l'est de la Géorgie et à la mi-octobre dans l'ouest de la Géorgie.
-En Géorgie, où le vin a une signification sacrée et où l'on trouve les premières traces de vinification au monde (il y a 8 000 ans), la tradition du rtvéli remonte à l'Antiquité et trouve ses racines dans la fête de l'abondance et de la variété de la mi-automne. Le rtvéli dure généralement plusieurs jours, les gens commencent à travailler tôt le matin et terminent la journée par un festin accompagné de chansons folkloriques comme par exemple le Mravaljamieri[1],[2],[3].
+En Géorgie, où le vin a une signification sacrée et où l'on trouve les premières traces de vinification au monde (il y a 8 000 ans), la tradition du rtvéli remonte à l'Antiquité et trouve ses racines dans la fête de l'abondance et de la variété de la mi-automne. Le rtvéli dure généralement plusieurs jours, les gens commencent à travailler tôt le matin et terminent la journée par un festin accompagné de chansons folkloriques comme par exemple le Mravaljamieri.
 </t>
         </is>
       </c>
